--- a/data/PokemonV4.xlsx
+++ b/data/PokemonV4.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anits\Downloads\Pokemon\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urjc-my.sharepoint.com/personal/mf_montero_2023_alumnos_urjc_es/Documents/Uni/2º/1er Cuatri/Estadística/Pokestadistica/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF56E4E1-3A6F-478B-9022-6079736EB6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
@@ -4250,7 +4250,7 @@
   <dimension ref="A1:P1074"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56438,6 +56438,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4097d603-6311-46c4-800e-fd3043ac3c52" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002A9C289ABE35AC4FA98D2A4448E4275F" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2af3624409c45754d54a01eb9be44751">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4097d603-6311-46c4-800e-fd3043ac3c52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e66bc00eb87092afb6c747822dafce9" ns3:_="">
     <xsd:import namespace="4097d603-6311-46c4-800e-fd3043ac3c52"/>
@@ -56625,24 +56642,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB199B5-CC1F-451D-8320-7F5A0A47E961}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4097d603-6311-46c4-800e-fd3043ac3c52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4097d603-6311-46c4-800e-fd3043ac3c52" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE8B4AE-125B-4529-95EE-895DDFA14C42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B06B386-9D92-4E5B-ADB4-73571B0D3261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56658,28 +56682,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE8B4AE-125B-4529-95EE-895DDFA14C42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB199B5-CC1F-451D-8320-7F5A0A47E961}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4097d603-6311-46c4-800e-fd3043ac3c52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/PokemonV4.xlsx
+++ b/data/PokemonV4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victs\OneDrive\Documentos\GitHub\Pokestadistica\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://urjc-my.sharepoint.com/personal/mf_montero_2023_alumnos_urjc_es/Documents/Uni/2º/1er Cuatri/Estadística/Pokestadistica/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A6C63E-8008-407D-B2C2-E774C8E74B8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4DD2666E-AF45-4849-BA93-8B4A652C4694}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4DD2666E-AF45-4849-BA93-8B4A652C4694}"/>
   </bookViews>
   <sheets>
     <sheet name="PokemonV2" sheetId="1" r:id="rId1"/>
@@ -4246,8 +4246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2577A70C-ED2D-4D98-98C4-4FC73F6DBD26}">
   <dimension ref="A1:P1074"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A615" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O627" sqref="O627"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56436,23 +56436,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="4097d603-6311-46c4-800e-fd3043ac3c52" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101002A9C289ABE35AC4FA98D2A4448E4275F" ma:contentTypeVersion="11" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="2af3624409c45754d54a01eb9be44751">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4097d603-6311-46c4-800e-fd3043ac3c52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3e66bc00eb87092afb6c747822dafce9" ns3:_="">
     <xsd:import namespace="4097d603-6311-46c4-800e-fd3043ac3c52"/>
@@ -56640,31 +56623,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB199B5-CC1F-451D-8320-7F5A0A47E961}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="4097d603-6311-46c4-800e-fd3043ac3c52"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE8B4AE-125B-4529-95EE-895DDFA14C42}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="4097d603-6311-46c4-800e-fd3043ac3c52" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3B06B386-9D92-4E5B-ADB4-73571B0D3261}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -56680,4 +56656,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBE8B4AE-125B-4529-95EE-895DDFA14C42}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB199B5-CC1F-451D-8320-7F5A0A47E961}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="4097d603-6311-46c4-800e-fd3043ac3c52"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>